--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_2_6.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_2_6.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1362415.519721287</v>
+        <v>-1364313.751825411</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.83780062</v>
+        <v>2264668.837800621</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673433</v>
+        <v>603248.4937673432</v>
       </c>
     </row>
     <row r="9">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>340.6564642588246</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>364.1273416596219</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>59.44227625377954</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,7 +710,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -722,7 +722,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -820,7 +820,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -829,10 +829,10 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>43.83743093372782</v>
       </c>
       <c r="H4" t="n">
-        <v>117.562301353476</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -859,7 +859,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -868,19 +868,19 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -893,28 +893,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>347.5855349403783</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,10 +941,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
@@ -953,16 +953,16 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>300.8349174324018</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1060,16 +1060,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1102,13 +1102,13 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>205.0849044383768</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1120,7 +1120,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>76.3759062602238</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1145,13 +1145,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>81.95591940744052</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,7 +1178,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1187,19 +1187,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>148.7409523377884</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1230,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1297,19 +1297,19 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>39.9786712663744</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>95.33023562355984</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923383</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1342,7 +1342,7 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1385,7 +1385,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H11" t="n">
-        <v>305.2872491113174</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
         <v>81.77913505274077</v>
@@ -1528,22 +1528,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>127.5277545269328</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>29.62324249224028</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>110.419245464272</v>
@@ -1582,10 +1582,10 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -1622,10 +1622,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H14" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113168</v>
       </c>
       <c r="I14" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1673,7 +1673,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560518</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1704,7 +1704,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1762,16 +1762,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>3.235570900715186</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>114.1973776341509</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1780,7 +1780,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1862,7 +1862,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1907,7 +1907,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -1941,7 +1941,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -2059,13 +2059,13 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>147.1163355383938</v>
+        <v>135.3693467804482</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2078,7 +2078,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2236,7 +2236,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>66.62250434554133</v>
+        <v>85.83160661091696</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -2245,19 +2245,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2296,10 +2296,10 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -2336,7 +2336,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2415,7 +2415,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2476,13 +2476,13 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2521,13 +2521,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>143.352755515586</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>286.2373523985773</v>
@@ -2536,13 +2536,13 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>146.1854691670918</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2573,7 +2573,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2652,7 +2652,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2710,7 +2710,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2719,19 +2719,19 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>62.28747238246468</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>22.7137750130146</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
         <v>197.9208099836032</v>
@@ -2767,7 +2767,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -2950,25 +2950,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C31" t="n">
-        <v>99.11493096898687</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D31" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E31" t="n">
-        <v>78.30207251692852</v>
+        <v>78.30207251692886</v>
       </c>
       <c r="F31" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G31" t="n">
-        <v>98.36167833373695</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H31" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I31" t="n">
-        <v>42.28735533463133</v>
+        <v>42.28735533463131</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S31" t="n">
         <v>129.7889198539626</v>
@@ -3047,7 +3047,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3126,7 +3126,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3187,25 +3187,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C34" t="n">
-        <v>99.11493096898718</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D34" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E34" t="n">
-        <v>78.30207251692852</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373695</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463133</v>
+        <v>42.28735533463132</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3235,7 +3235,7 @@
         <v>41.83246227415214</v>
       </c>
       <c r="S34" t="n">
-        <v>129.7889198539626</v>
+        <v>129.7889198539627</v>
       </c>
       <c r="T34" t="n">
         <v>153.4156709287486</v>
@@ -3253,7 +3253,7 @@
         <v>157.5777652593965</v>
       </c>
       <c r="Y34" t="n">
-        <v>150.4527632224538</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="35">
@@ -3284,7 +3284,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3363,7 +3363,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3424,22 +3424,22 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C37" t="n">
-        <v>99.11493096898718</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D37" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E37" t="n">
-        <v>78.30207251692852</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373695</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I37" t="n">
         <v>42.28735533463133</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C40" t="n">
-        <v>99.11493096898722</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D40" t="n">
-        <v>80.48358288857175</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E40" t="n">
-        <v>78.30207251692856</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329064</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373698</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789552</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I40" t="n">
-        <v>42.28735533463137</v>
+        <v>42.28735533463131</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415218</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S40" t="n">
         <v>129.7889198539626</v>
@@ -3718,16 +3718,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V40" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W40" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X40" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y40" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="41">
@@ -3758,7 +3758,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3837,7 +3837,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3916,7 +3916,7 @@
         <v>80.78193823789547</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463133</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S43" t="n">
         <v>129.7889198539626</v>
@@ -4304,25 +4304,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1362.140678483279</v>
+        <v>1610.143665127019</v>
       </c>
       <c r="C2" t="n">
-        <v>993.1781615428677</v>
+        <v>1610.143665127019</v>
       </c>
       <c r="D2" t="n">
-        <v>993.1781615428677</v>
+        <v>1251.877966520269</v>
       </c>
       <c r="E2" t="n">
-        <v>993.1781615428677</v>
+        <v>866.0897139220242</v>
       </c>
       <c r="F2" t="n">
-        <v>625.3727659270879</v>
+        <v>859.1442131728207</v>
       </c>
       <c r="G2" t="n">
-        <v>207.4089578252748</v>
+        <v>441.1804050710076</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>113.9856851070105</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
@@ -4331,16 +4331,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4358,22 +4358,22 @@
         <v>2697.149091018222</v>
       </c>
       <c r="T2" t="n">
-        <v>2478.514423990285</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U2" t="n">
-        <v>2478.514423990285</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V2" t="n">
-        <v>2478.514423990285</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W2" t="n">
-        <v>2125.745768720171</v>
+        <v>2344.380435748108</v>
       </c>
       <c r="X2" t="n">
-        <v>1752.280010459091</v>
+        <v>2344.380435748108</v>
       </c>
       <c r="Y2" t="n">
-        <v>1362.140678483279</v>
+        <v>1954.241103772296</v>
       </c>
     </row>
     <row r="3">
@@ -4383,25 +4383,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4416,22 +4416,22 @@
         <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4446,10 +4446,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4462,22 +4462,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>470.7225141620388</v>
+        <v>246.1363086691493</v>
       </c>
       <c r="C4" t="n">
-        <v>470.7225141620388</v>
+        <v>246.1363086691493</v>
       </c>
       <c r="D4" t="n">
-        <v>320.605874749703</v>
+        <v>246.1363086691493</v>
       </c>
       <c r="E4" t="n">
-        <v>172.6927811673099</v>
+        <v>98.2232150867562</v>
       </c>
       <c r="F4" t="n">
-        <v>172.6927811673099</v>
+        <v>98.2232150867562</v>
       </c>
       <c r="G4" t="n">
-        <v>172.6927811673099</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
         <v>53.94298182036445</v>
@@ -4492,46 +4492,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T4" t="n">
-        <v>698.7120650600561</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="U4" t="n">
-        <v>698.7120650600561</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="V4" t="n">
-        <v>698.7120650600561</v>
+        <v>246.1363086691493</v>
       </c>
       <c r="W4" t="n">
-        <v>698.7120650600561</v>
+        <v>246.1363086691493</v>
       </c>
       <c r="X4" t="n">
-        <v>470.7225141620388</v>
+        <v>246.1363086691493</v>
       </c>
       <c r="Y4" t="n">
-        <v>470.7225141620388</v>
+        <v>246.1363086691493</v>
       </c>
     </row>
     <row r="5">
@@ -4541,37 +4541,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1526.106027515566</v>
+        <v>1359.546482223453</v>
       </c>
       <c r="C5" t="n">
-        <v>1157.143510575154</v>
+        <v>990.5839652830418</v>
       </c>
       <c r="D5" t="n">
-        <v>806.0470106353782</v>
+        <v>632.3182666762914</v>
       </c>
       <c r="E5" t="n">
-        <v>806.0470106353782</v>
+        <v>632.3182666762914</v>
       </c>
       <c r="F5" t="n">
-        <v>395.0611058457707</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G5" t="n">
-        <v>381.1377017843616</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4592,25 +4592,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T5" t="n">
-        <v>2247.308246834948</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U5" t="n">
-        <v>2247.308246834948</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="V5" t="n">
-        <v>1916.245359491378</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="W5" t="n">
-        <v>1916.245359491378</v>
+        <v>2119.612080548655</v>
       </c>
       <c r="X5" t="n">
-        <v>1916.245359491378</v>
+        <v>1746.146322287575</v>
       </c>
       <c r="Y5" t="n">
-        <v>1526.106027515566</v>
+        <v>1746.146322287575</v>
       </c>
     </row>
     <row r="6">
@@ -4647,10 +4647,10 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>266.2060027641994</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598713</v>
+        <v>670.8219208598711</v>
       </c>
       <c r="M6" t="n">
         <v>1194.968834417902</v>
@@ -4699,22 +4699,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>361.80799380017</v>
+        <v>520.9725150767609</v>
       </c>
       <c r="C7" t="n">
-        <v>361.80799380017</v>
+        <v>520.9725150767609</v>
       </c>
       <c r="D7" t="n">
-        <v>211.6913543878343</v>
+        <v>370.8558756644252</v>
       </c>
       <c r="E7" t="n">
-        <v>211.6913543878343</v>
+        <v>222.942782082032</v>
       </c>
       <c r="F7" t="n">
-        <v>211.6913543878343</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G7" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
         <v>53.94298182036445</v>
@@ -4729,46 +4729,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>520.9725150767609</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>520.9725150767609</v>
       </c>
       <c r="U7" t="n">
-        <v>438.9553738610022</v>
+        <v>520.9725150767609</v>
       </c>
       <c r="V7" t="n">
-        <v>438.9553738610022</v>
+        <v>520.9725150767609</v>
       </c>
       <c r="W7" t="n">
-        <v>438.9553738610022</v>
+        <v>520.9725150767609</v>
       </c>
       <c r="X7" t="n">
-        <v>438.9553738610022</v>
+        <v>520.9725150767609</v>
       </c>
       <c r="Y7" t="n">
-        <v>361.80799380017</v>
+        <v>520.9725150767609</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1783.124109094748</v>
+        <v>1233.603060210037</v>
       </c>
       <c r="C8" t="n">
-        <v>1414.161592154336</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="D8" t="n">
-        <v>1414.161592154336</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="E8" t="n">
-        <v>1028.373339556092</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F8" t="n">
-        <v>617.3874347664846</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G8" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T8" t="n">
-        <v>2423.485734520778</v>
+        <v>2478.514423990286</v>
       </c>
       <c r="U8" t="n">
-        <v>2169.72394915887</v>
+        <v>2478.514423990286</v>
       </c>
       <c r="V8" t="n">
-        <v>2169.72394915887</v>
+        <v>2147.451536646715</v>
       </c>
       <c r="W8" t="n">
-        <v>2169.72394915887</v>
+        <v>1997.208150446929</v>
       </c>
       <c r="X8" t="n">
-        <v>2169.72394915887</v>
+        <v>1623.742392185849</v>
       </c>
       <c r="Y8" t="n">
-        <v>2169.72394915887</v>
+        <v>1233.603060210037</v>
       </c>
     </row>
     <row r="9">
@@ -4878,7 +4878,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
         <v>129.2001442204943</v>
@@ -4893,7 +4893,7 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
         <v>2188.831293537797</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>546.4805193761945</v>
+        <v>319.1723320447965</v>
       </c>
       <c r="C10" t="n">
-        <v>377.5443364482876</v>
+        <v>150.2361491168895</v>
       </c>
       <c r="D10" t="n">
-        <v>377.5443364482876</v>
+        <v>150.2361491168895</v>
       </c>
       <c r="E10" t="n">
-        <v>337.1618402196266</v>
+        <v>150.2361491168895</v>
       </c>
       <c r="F10" t="n">
-        <v>190.2718927217162</v>
+        <v>150.2361491168895</v>
       </c>
       <c r="G10" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H10" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064342</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064342</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064342</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064342</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="Y10" t="n">
-        <v>728.1289842064342</v>
+        <v>500.8207968750362</v>
       </c>
     </row>
     <row r="11">
@@ -5021,28 +5021,28 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155886</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
@@ -5121,22 +5121,22 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K12" t="n">
-        <v>644.6755122555218</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L12" t="n">
-        <v>891.4406401619858</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M12" t="n">
-        <v>1198.760773441947</v>
+        <v>1595.645765494011</v>
       </c>
       <c r="N12" t="n">
-        <v>1528.62340110598</v>
+        <v>1925.508393158044</v>
       </c>
       <c r="O12" t="n">
-        <v>1808.163466324677</v>
+        <v>2205.048458376741</v>
       </c>
       <c r="P12" t="n">
-        <v>2328.464088060424</v>
+        <v>2410.070939158951</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>238.6741500022174</v>
+        <v>782.4872769945461</v>
       </c>
       <c r="C13" t="n">
-        <v>238.6741500022174</v>
+        <v>653.6713633309776</v>
       </c>
       <c r="D13" t="n">
-        <v>238.6741500022174</v>
+        <v>503.5547239186418</v>
       </c>
       <c r="E13" t="n">
-        <v>238.6741500022174</v>
+        <v>355.6416303362487</v>
       </c>
       <c r="F13" t="n">
-        <v>238.6741500022174</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G13" t="n">
-        <v>238.6741500022174</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H13" t="n">
         <v>208.7516828383384</v>
@@ -5230,19 +5230,19 @@
         <v>964.1357418247858</v>
       </c>
       <c r="U13" t="n">
-        <v>675.007103038344</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="V13" t="n">
-        <v>420.3226148324571</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="W13" t="n">
-        <v>420.3226148324571</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="X13" t="n">
-        <v>420.3226148324571</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="Y13" t="n">
-        <v>420.3226148324571</v>
+        <v>964.1357418247858</v>
       </c>
     </row>
     <row r="14">
@@ -5252,34 +5252,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E14" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G14" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805461</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
@@ -5288,13 +5288,13 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O14" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
         <v>4801.62743720783</v>
@@ -5321,7 +5321,7 @@
         <v>3205.060556590535</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="15">
@@ -5355,22 +5355,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126481</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K15" t="n">
-        <v>674.4285624571608</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L15" t="n">
-        <v>921.1936903636247</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M15" t="n">
-        <v>1228.513823643586</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N15" t="n">
-        <v>1558.376451307619</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O15" t="n">
-        <v>1837.916516526316</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P15" t="n">
         <v>2328.464088060424</v>
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>850.2141304319069</v>
+        <v>582.2416896507652</v>
       </c>
       <c r="C16" t="n">
-        <v>681.2779475040001</v>
+        <v>413.3055067228584</v>
       </c>
       <c r="D16" t="n">
-        <v>531.1613080916643</v>
+        <v>413.3055067228584</v>
       </c>
       <c r="E16" t="n">
-        <v>415.8104215925219</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F16" t="n">
-        <v>415.8104215925219</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G16" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H16" t="n">
         <v>97.21709146028584</v>
@@ -5437,19 +5437,19 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O16" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
         <v>1460.082827585746</v>
@@ -5458,28 +5458,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S16" t="n">
-        <v>1298.996260473454</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T16" t="n">
-        <v>1298.996260473454</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="U16" t="n">
-        <v>1298.996260473454</v>
+        <v>874.9271131227918</v>
       </c>
       <c r="V16" t="n">
-        <v>1298.996260473454</v>
+        <v>874.9271131227918</v>
       </c>
       <c r="W16" t="n">
-        <v>1298.996260473454</v>
+        <v>585.5099430858311</v>
       </c>
       <c r="X16" t="n">
-        <v>1071.006709575437</v>
+        <v>585.5099430858311</v>
       </c>
       <c r="Y16" t="n">
-        <v>850.2141304319069</v>
+        <v>585.5099430858311</v>
       </c>
     </row>
     <row r="17">
@@ -5489,7 +5489,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
@@ -5498,34 +5498,34 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H17" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K17" t="n">
         <v>889.2841917514083</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O17" t="n">
         <v>3889.732883643323</v>
@@ -5555,10 +5555,10 @@
         <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="18">
@@ -5601,16 +5601,16 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M18" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N18" t="n">
         <v>1558.376451307619</v>
       </c>
       <c r="O18" t="n">
-        <v>1837.916516526316</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P18" t="n">
-        <v>2358.217138262064</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>879.2482765610114</v>
+        <v>507.0827848727882</v>
       </c>
       <c r="C19" t="n">
-        <v>710.3120936331045</v>
+        <v>507.0827848727882</v>
       </c>
       <c r="D19" t="n">
-        <v>560.1954542207687</v>
+        <v>507.0827848727882</v>
       </c>
       <c r="E19" t="n">
-        <v>412.2823606383756</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="F19" t="n">
-        <v>265.3924131404652</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I19" t="n">
         <v>97.21709146028584</v>
@@ -5695,28 +5695,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S19" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T19" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U19" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="V19" t="n">
-        <v>1498.916270557902</v>
+        <v>933.2366688293934</v>
       </c>
       <c r="W19" t="n">
-        <v>1209.499100520942</v>
+        <v>643.8194987924328</v>
       </c>
       <c r="X19" t="n">
-        <v>1060.896741391251</v>
+        <v>507.0827848727882</v>
       </c>
       <c r="Y19" t="n">
-        <v>1060.896741391251</v>
+        <v>507.0827848727882</v>
       </c>
     </row>
     <row r="20">
@@ -5726,7 +5726,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
         <v>2059.358867610191</v>
@@ -5735,40 +5735,40 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G20" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J20" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M20" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q20" t="n">
         <v>4801.62743720783</v>
@@ -5832,19 +5832,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>644.6755122555218</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L21" t="n">
-        <v>891.4406401619858</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M21" t="n">
-        <v>1198.760773441947</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N21" t="n">
-        <v>1528.62340110598</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O21" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P21" t="n">
         <v>2328.464088060424</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>732.358329063101</v>
+        <v>678.2225136306376</v>
       </c>
       <c r="C22" t="n">
-        <v>563.4221461351941</v>
+        <v>509.2863307027308</v>
       </c>
       <c r="D22" t="n">
-        <v>413.3055067228584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="E22" t="n">
-        <v>265.3924131404652</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="F22" t="n">
-        <v>265.3924131404652</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I22" t="n">
         <v>97.21709146028584</v>
@@ -5944,16 +5944,16 @@
         <v>1275.130855347408</v>
       </c>
       <c r="V22" t="n">
-        <v>1020.446367141521</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="W22" t="n">
-        <v>1020.446367141521</v>
+        <v>985.7136853104475</v>
       </c>
       <c r="X22" t="n">
-        <v>1020.446367141521</v>
+        <v>985.7136853104475</v>
       </c>
       <c r="Y22" t="n">
-        <v>799.6537879979912</v>
+        <v>764.9211061669174</v>
       </c>
     </row>
     <row r="23">
@@ -5966,34 +5966,34 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G23" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822466</v>
       </c>
       <c r="I23" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
@@ -6002,31 +6002,31 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q23" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V23" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X23" t="n">
         <v>3205.060556590537</v>
@@ -6054,25 +6054,25 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G24" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I24" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K24" t="n">
-        <v>287.7778528277033</v>
+        <v>549.5984374701562</v>
       </c>
       <c r="L24" t="n">
-        <v>891.4406401619858</v>
+        <v>891.4406401619851</v>
       </c>
       <c r="M24" t="n">
         <v>1198.760773441947</v>
@@ -6121,13 +6121,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>527.3450129705744</v>
+        <v>844.1942894808744</v>
       </c>
       <c r="C25" t="n">
-        <v>527.3450129705744</v>
+        <v>675.2581065529675</v>
       </c>
       <c r="D25" t="n">
-        <v>527.3450129705744</v>
+        <v>675.2581065529675</v>
       </c>
       <c r="E25" t="n">
         <v>527.3450129705744</v>
@@ -6151,10 +6151,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6163,34 +6163,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R25" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S25" t="n">
-        <v>1187.92115703528</v>
+        <v>1354.115507410846</v>
       </c>
       <c r="T25" t="n">
-        <v>964.1357418247858</v>
+        <v>1354.115507410846</v>
       </c>
       <c r="U25" t="n">
-        <v>675.007103038344</v>
+        <v>1064.986868624404</v>
       </c>
       <c r="V25" t="n">
-        <v>675.007103038344</v>
+        <v>1064.986868624404</v>
       </c>
       <c r="W25" t="n">
-        <v>527.3450129705744</v>
+        <v>1064.986868624404</v>
       </c>
       <c r="X25" t="n">
-        <v>527.3450129705744</v>
+        <v>1064.986868624404</v>
       </c>
       <c r="Y25" t="n">
-        <v>527.3450129705744</v>
+        <v>844.1942894808744</v>
       </c>
     </row>
     <row r="26">
@@ -6200,7 +6200,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
         <v>2059.358867610191</v>
@@ -6209,25 +6209,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G26" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795206</v>
@@ -6260,16 +6260,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W26" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="27">
@@ -6303,25 +6303,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L27" t="n">
-        <v>534.5429807341674</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M27" t="n">
-        <v>1016.813592216476</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N27" t="n">
-        <v>1346.676219880508</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O27" t="n">
-        <v>2016.139981183168</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P27" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q27" t="n">
         <v>2623.573505376138</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>271.6683216085047</v>
+        <v>268.0733921265321</v>
       </c>
       <c r="C28" t="n">
-        <v>271.6683216085047</v>
+        <v>268.0733921265321</v>
       </c>
       <c r="D28" t="n">
-        <v>271.6683216085047</v>
+        <v>268.0733921265321</v>
       </c>
       <c r="E28" t="n">
-        <v>271.6683216085047</v>
+        <v>120.160298544139</v>
       </c>
       <c r="F28" t="n">
-        <v>271.6683216085047</v>
+        <v>120.160298544139</v>
       </c>
       <c r="G28" t="n">
-        <v>208.7516828383384</v>
+        <v>120.160298544139</v>
       </c>
       <c r="H28" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I28" t="n">
         <v>97.21709146028584</v>
@@ -6406,28 +6406,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S28" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T28" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U28" t="n">
-        <v>1009.867621687013</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="V28" t="n">
-        <v>1009.867621687013</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="W28" t="n">
-        <v>720.4504516500522</v>
+        <v>898.5039869983193</v>
       </c>
       <c r="X28" t="n">
-        <v>492.4609007520348</v>
+        <v>670.514436100302</v>
       </c>
       <c r="Y28" t="n">
-        <v>271.6683216085047</v>
+        <v>449.7218569567718</v>
       </c>
     </row>
     <row r="29">
@@ -6440,40 +6440,40 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155886</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823783</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O29" t="n">
         <v>3889.732883643323</v>
@@ -6494,16 +6494,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y29" t="n">
         <v>2814.921224614724</v>
@@ -6558,10 +6558,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P30" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q30" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6595,19 +6595,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>659.4602391108328</v>
+        <v>659.4602391108334</v>
       </c>
       <c r="C31" t="n">
-        <v>559.3441472229673</v>
+        <v>559.3441472229675</v>
       </c>
       <c r="D31" t="n">
-        <v>478.0475988506726</v>
+        <v>478.0475988506729</v>
       </c>
       <c r="E31" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083205</v>
       </c>
       <c r="F31" t="n">
-        <v>320.8847398504513</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G31" t="n">
         <v>221.5295092103129</v>
@@ -6625,7 +6625,7 @@
         <v>394.6863306254957</v>
       </c>
       <c r="L31" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649692</v>
       </c>
       <c r="M31" t="n">
         <v>1048.866260860496</v>
@@ -6640,7 +6640,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q31" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R31" t="n">
         <v>1996.265827986523</v>
@@ -6655,16 +6655,16 @@
         <v>1489.892037025262</v>
       </c>
       <c r="V31" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W31" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X31" t="n">
-        <v>924.2611010045205</v>
+        <v>924.261101004521</v>
       </c>
       <c r="Y31" t="n">
-        <v>772.2886129010315</v>
+        <v>772.288612901032</v>
       </c>
     </row>
     <row r="32">
@@ -6680,28 +6680,28 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155886</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823784</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514082</v>
+        <v>889.284191751408</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795206</v>
@@ -6777,25 +6777,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L33" t="n">
-        <v>534.5429807341674</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N33" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O33" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q33" t="n">
         <v>2623.573505376138</v>
@@ -6832,19 +6832,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108332</v>
+        <v>659.4602391108331</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229673</v>
+        <v>559.3441472229672</v>
       </c>
       <c r="D34" t="n">
         <v>478.0475988506726</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083205</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504513</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G34" t="n">
         <v>221.5295092103129</v>
@@ -6898,10 +6898,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045205</v>
+        <v>924.2611010045207</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010318</v>
+        <v>772.2886129010317</v>
       </c>
     </row>
     <row r="35">
@@ -6923,49 +6923,49 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805462</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J35" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T35" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
         <v>4262.3578574653</v>
@@ -7011,31 +7011,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J36" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L36" t="n">
-        <v>534.5429807341674</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M36" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N36" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O36" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q36" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7069,16 +7069,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108332</v>
+        <v>659.4602391108326</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229673</v>
+        <v>559.344147222967</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506726</v>
+        <v>478.0475988506724</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083203</v>
       </c>
       <c r="F37" t="n">
         <v>320.8847398504512</v>
@@ -7093,13 +7093,13 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J37" t="n">
-        <v>177.0503551525399</v>
+        <v>177.0503551525402</v>
       </c>
       <c r="K37" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254959</v>
       </c>
       <c r="L37" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M37" t="n">
         <v>1048.866260860496</v>
@@ -7114,7 +7114,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q37" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R37" t="n">
         <v>1996.265827986523</v>
@@ -7129,16 +7129,16 @@
         <v>1489.892037025262</v>
       </c>
       <c r="V37" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W37" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X37" t="n">
-        <v>924.2611010045208</v>
+        <v>924.2611010045202</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010317</v>
+        <v>772.2886129010312</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155899</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514091</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T38" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="39">
@@ -7248,25 +7248,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L39" t="n">
-        <v>880.8106280646855</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
-        <v>1188.130761344647</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N39" t="n">
-        <v>1517.99338900868</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O39" t="n">
-        <v>1797.533454227377</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P39" t="n">
         <v>2317.834075963124</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108334</v>
+        <v>659.4602391108333</v>
       </c>
       <c r="C40" t="n">
-        <v>559.3441472229675</v>
+        <v>559.3441472229674</v>
       </c>
       <c r="D40" t="n">
         <v>478.0475988506728</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083207</v>
+        <v>398.9545963083209</v>
       </c>
       <c r="F40" t="n">
-        <v>320.8847398504514</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G40" t="n">
-        <v>221.529509210313</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H40" t="n">
         <v>139.9315917982973</v>
@@ -7330,13 +7330,13 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J40" t="n">
-        <v>177.0503551525401</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K40" t="n">
-        <v>394.6863306254958</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L40" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649692</v>
       </c>
       <c r="M40" t="n">
         <v>1048.866260860496</v>
@@ -7351,13 +7351,13 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q40" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R40" t="n">
         <v>1996.265827986523</v>
       </c>
       <c r="S40" t="n">
-        <v>1865.165908942117</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T40" t="n">
         <v>1710.200584771663</v>
@@ -7372,10 +7372,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X40" t="n">
-        <v>924.2611010045212</v>
+        <v>924.2611010045209</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010321</v>
+        <v>772.2886129010319</v>
       </c>
     </row>
     <row r="41">
@@ -7388,34 +7388,34 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155879</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805462</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
@@ -7436,22 +7436,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T41" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y41" t="n">
         <v>2814.921224614724</v>
@@ -7497,7 +7497,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N42" t="n">
         <v>1558.376451307619</v>
@@ -7543,16 +7543,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108331</v>
+        <v>659.4602391108336</v>
       </c>
       <c r="C43" t="n">
-        <v>559.3441472229672</v>
+        <v>559.3441472229678</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506726</v>
+        <v>478.0475988506731</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083205</v>
+        <v>398.954596308321</v>
       </c>
       <c r="F43" t="n">
         <v>320.8847398504512</v>
@@ -7564,7 +7564,7 @@
         <v>139.9315917982973</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
         <v>177.05035515254</v>
@@ -7573,13 +7573,13 @@
         <v>394.6863306254957</v>
       </c>
       <c r="L43" t="n">
-        <v>709.8489468649692</v>
+        <v>709.848946864969</v>
       </c>
       <c r="M43" t="n">
         <v>1048.866260860496</v>
       </c>
       <c r="N43" t="n">
-        <v>1386.860941116388</v>
+        <v>1386.860941116387</v>
       </c>
       <c r="O43" t="n">
         <v>1688.186490350129</v>
@@ -7591,7 +7591,7 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R43" t="n">
-        <v>1996.265827986523</v>
+        <v>1996.265827986522</v>
       </c>
       <c r="S43" t="n">
         <v>1865.165908942116</v>
@@ -7600,19 +7600,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U43" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V43" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W43" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X43" t="n">
-        <v>924.2611010045207</v>
+        <v>924.2611010045213</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.2886129010317</v>
+        <v>772.2886129010321</v>
       </c>
     </row>
     <row r="44">
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.4602391108328</v>
+        <v>659.4602391108331</v>
       </c>
       <c r="C46" t="n">
-        <v>559.3441472229671</v>
+        <v>559.3441472229673</v>
       </c>
       <c r="D46" t="n">
-        <v>478.0475988506724</v>
+        <v>478.0475988506727</v>
       </c>
       <c r="E46" t="n">
-        <v>398.9545963083204</v>
+        <v>398.9545963083207</v>
       </c>
       <c r="F46" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504514</v>
       </c>
       <c r="G46" t="n">
-        <v>221.5295092103127</v>
+        <v>221.5295092103128</v>
       </c>
       <c r="H46" t="n">
         <v>139.9315917982973</v>
@@ -7804,7 +7804,7 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
-        <v>177.0503551525394</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K46" t="n">
         <v>394.6863306254953</v>
@@ -7846,10 +7846,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X46" t="n">
-        <v>924.2611010045206</v>
+        <v>924.2611010045208</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.2886129010315</v>
+        <v>772.2886129010317</v>
       </c>
     </row>
   </sheetData>
@@ -8064,7 +8064,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516221</v>
       </c>
       <c r="N3" t="n">
         <v>479.3423743435536</v>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747121</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8295,10 +8295,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>145.0294169142014</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050818</v>
       </c>
       <c r="M6" t="n">
         <v>465.7050637499999</v>
@@ -8541,10 +8541,10 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>479.3423743435536</v>
+        <v>359.906554245176</v>
       </c>
       <c r="O9" t="n">
-        <v>274.4264991783523</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
@@ -8769,10 +8769,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>234.4116509503169</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -8784,10 +8784,10 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>127.6461250100647</v>
       </c>
       <c r="R12" t="n">
         <v>34.78428385445218</v>
@@ -8933,7 +8933,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928327</v>
       </c>
       <c r="N14" t="n">
         <v>437.3469244119842</v>
@@ -9003,16 +9003,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>360.5026862907258</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -9021,13 +9021,13 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>288.4091825776759</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>34.7842838544522</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9255,16 +9255,16 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>180.0237016735871</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9480,7 +9480,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>234.4116509503169</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9495,7 +9495,7 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
@@ -9644,7 +9644,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M23" t="n">
-        <v>449.5135334928327</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N23" t="n">
         <v>437.3469244119842</v>
@@ -9717,10 +9717,10 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>360.5026862907258</v>
+        <v>96.03744927814625</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -9738,7 +9738,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9951,31 +9951,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>176.7176547498451</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10118,7 +10118,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
-        <v>449.5135334928324</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N29" t="n">
         <v>437.3469244119842</v>
@@ -10206,13 +10206,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>277.6717966208064</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10425,31 +10425,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>409.700368322958</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10592,7 +10592,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928336</v>
       </c>
       <c r="N35" t="n">
         <v>437.3469244119842</v>
@@ -10607,7 +10607,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10662,31 +10662,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>409.700368322958</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10899,13 +10899,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>85.30006332127806</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -10917,7 +10917,7 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
@@ -11060,7 +11060,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>324.1454125711646</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
         <v>417.6612145504504</v>
@@ -11154,7 +11154,7 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>277.6717966208064</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
@@ -22544,7 +22544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>42.077377404656</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -22717,16 +22717,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>123.4723713253231</v>
       </c>
       <c r="H4" t="n">
-        <v>38.60858748831913</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22750,10 +22750,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>57.47483913429645</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -23416,22 +23416,22 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>39.71906657169504</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>119.2905858752958</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23470,13 +23470,13 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336592</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -23650,16 +23650,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>176.5964092812221</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>32.23658501241826</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -23668,7 +23668,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
         <v>110.419245464272</v>
@@ -23698,28 +23698,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23887,28 +23887,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,10 +23935,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>221.5475610583892</v>
@@ -23947,13 +23947,13 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>78.59331985064333</v>
+        <v>90.340308608589</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -24124,7 +24124,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>113.209475836396</v>
+        <v>94.00037357102033</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24133,19 +24133,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24184,10 +24184,10 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -24364,13 +24364,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24409,13 +24409,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>54.56805446801721</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24424,13 +24424,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>140.3375291694992</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24598,7 +24598,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -24607,19 +24607,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>104.2060960809129</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>126.2000533545215</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24655,7 +24655,7 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -26317,22 +26317,22 @@
         <v>123156.2654796425</v>
       </c>
       <c r="D2" t="n">
-        <v>123156.2654796424</v>
+        <v>123156.2654796425</v>
       </c>
       <c r="E2" t="n">
         <v>117308.7179213126</v>
       </c>
       <c r="F2" t="n">
-        <v>117308.7179213127</v>
+        <v>117308.7179213126</v>
       </c>
       <c r="G2" t="n">
-        <v>117308.7179213126</v>
+        <v>117308.7179213125</v>
       </c>
       <c r="H2" t="n">
         <v>117308.7179213126</v>
       </c>
       <c r="I2" t="n">
-        <v>117308.7179213126</v>
+        <v>117308.7179213125</v>
       </c>
       <c r="J2" t="n">
         <v>117308.7179213126</v>
@@ -26341,10 +26341,10 @@
         <v>123156.2654796425</v>
       </c>
       <c r="L2" t="n">
-        <v>123156.2654796425</v>
+        <v>123156.2654796426</v>
       </c>
       <c r="M2" t="n">
-        <v>123156.2654796425</v>
+        <v>123156.2654796426</v>
       </c>
       <c r="N2" t="n">
         <v>123156.2654796425</v>
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768961</v>
+        <v>525160.036476896</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,10 +26387,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
-        <v>54505.51210371252</v>
+        <v>54505.51210371254</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26427,31 +26427,31 @@
         <v>15045.6696214391</v>
       </c>
       <c r="F4" t="n">
-        <v>15045.66962143918</v>
+        <v>15045.66962143914</v>
       </c>
       <c r="G4" t="n">
+        <v>15045.66962143912</v>
+      </c>
+      <c r="H4" t="n">
         <v>15045.6696214391</v>
-      </c>
-      <c r="H4" t="n">
-        <v>15045.66962143911</v>
       </c>
       <c r="I4" t="n">
         <v>15045.6696214391</v>
       </c>
       <c r="J4" t="n">
-        <v>15045.66962143912</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="K4" t="n">
-        <v>37464.45686275957</v>
+        <v>37464.45686275959</v>
       </c>
       <c r="L4" t="n">
         <v>37464.45686275959</v>
       </c>
       <c r="M4" t="n">
-        <v>37464.45686275957</v>
+        <v>37464.45686275959</v>
       </c>
       <c r="N4" t="n">
-        <v>37464.45686275956</v>
+        <v>37464.45686275959</v>
       </c>
       <c r="O4" t="n">
         <v>37464.45686275957</v>
@@ -26473,7 +26473,7 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="E5" t="n">
         <v>91987.32594871662</v>
@@ -26482,16 +26482,16 @@
         <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="H5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="I5" t="n">
+        <v>91987.32594871664</v>
+      </c>
+      <c r="J5" t="n">
         <v>91987.32594871662</v>
-      </c>
-      <c r="J5" t="n">
-        <v>91987.32594871664</v>
       </c>
       <c r="K5" t="n">
         <v>97715.10582002539</v>
@@ -26500,10 +26500,10 @@
         <v>97715.10582002539</v>
       </c>
       <c r="M5" t="n">
+        <v>97715.1058200254</v>
+      </c>
+      <c r="N5" t="n">
         <v>97715.10582002539</v>
-      </c>
-      <c r="N5" t="n">
-        <v>97715.1058200254</v>
       </c>
       <c r="O5" t="n">
         <v>97715.10582002539</v>
@@ -26519,7 +26519,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-703333.0276387483</v>
+        <v>-703351.5213766828</v>
       </c>
       <c r="C6" t="n">
         <v>-116477.7708349896</v>
@@ -26528,40 +26528,40 @@
         <v>-116477.7708349896</v>
       </c>
       <c r="E6" t="n">
-        <v>-514884.3141257393</v>
+        <v>-514981.7732517113</v>
       </c>
       <c r="F6" t="n">
-        <v>10275.72235115689</v>
+        <v>10178.26322518467</v>
       </c>
       <c r="G6" t="n">
-        <v>10275.7223511569</v>
+        <v>10178.26322518464</v>
       </c>
       <c r="H6" t="n">
-        <v>10275.72235115687</v>
+        <v>10178.26322518471</v>
       </c>
       <c r="I6" t="n">
-        <v>10275.72235115687</v>
+        <v>10178.26322518465</v>
       </c>
       <c r="J6" t="n">
-        <v>-166147.4968414361</v>
+        <v>-166244.9559674083</v>
       </c>
       <c r="K6" t="n">
-        <v>-66528.80930685495</v>
+        <v>-66528.80930685501</v>
       </c>
       <c r="L6" t="n">
-        <v>-12023.29720314246</v>
+        <v>-12023.29720314241</v>
       </c>
       <c r="M6" t="n">
         <v>-146824.3124369796</v>
       </c>
       <c r="N6" t="n">
-        <v>-12023.29720314244</v>
+        <v>-12023.29720314247</v>
       </c>
       <c r="O6" t="n">
         <v>-12023.29720314243</v>
       </c>
       <c r="P6" t="n">
-        <v>-66528.80930685496</v>
+        <v>-66528.80930685498</v>
       </c>
     </row>
   </sheetData>
@@ -26710,16 +26710,16 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L2" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M2" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N2" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O2" t="n">
         <v>68.13189012964065</v>
@@ -26735,46 +26735,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
         <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541001</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="H3" t="n">
         <v>830.3824054541002</v>
       </c>
       <c r="I3" t="n">
+        <v>830.3824054541004</v>
+      </c>
+      <c r="J3" t="n">
         <v>830.3824054541002</v>
-      </c>
-      <c r="J3" t="n">
-        <v>830.3824054541003</v>
       </c>
       <c r="K3" t="n">
         <v>830.3824054541003</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="N3" t="n">
         <v>830.3824054541003</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="P3" t="n">
         <v>830.3824054541002</v>
@@ -26793,7 +26793,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26932,7 +26932,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964071</v>
       </c>
     </row>
     <row r="3">
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370136</v>
+        <v>452.6387412370135</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="3">
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,28 +27376,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>42.74870408208955</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>92.48903999108171</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,13 +27424,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
@@ -27442,7 +27442,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27540,7 +27540,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -27549,16 +27549,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,28 +27579,28 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>89.19035284586141</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27613,28 +27613,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>7.097506680304662</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,7 +27664,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -27673,16 +27673,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>48.40605128501119</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27780,22 +27780,22 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,16 +27819,16 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>7.060634511642149</v>
       </c>
       <c r="T7" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27840,7 +27840,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>142.208747091871</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27865,13 +27865,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>331.8282506133545</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,7 +27898,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -27907,19 +27907,19 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>200.5000163796246</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28017,22 +28017,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>106.4552913801948</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>71.97956663549107</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853701</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,16 +28053,16 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>286.2818742419777</v>
@@ -28105,7 +28105,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28308,7 +28308,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>-9.426533627750662e-13</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -28342,7 +28342,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>8.526512829121202e-13</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -28393,7 +28393,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>1.800799509510398e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -28627,7 +28627,7 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -28798,7 +28798,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -29323,7 +29323,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="32">
@@ -29767,7 +29767,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="41">
@@ -31045,19 +31045,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31072,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31221,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31282,19 +31282,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31309,13 +31309,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31382,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,16 +31434,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31458,16 +31458,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31513,46 +31513,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31619,22 +31619,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31671,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31695,22 +31695,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31996,40 +31996,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L14" t="n">
-        <v>526.7962671304439</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R14" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104647</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32069,10 +32069,10 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
         <v>168.7478056215733</v>
@@ -32081,7 +32081,7 @@
         <v>288.4168775622982</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358984</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
         <v>452.5584109724845</v>
@@ -32090,10 +32090,10 @@
         <v>464.5362854813461</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855525</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P15" t="n">
-        <v>341.0678223458548</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q15" t="n">
         <v>227.9948068710956</v>
@@ -32105,7 +32105,7 @@
         <v>33.17612723677464</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361488</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32151,7 +32151,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>45.03122946298629</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
@@ -32169,7 +32169,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P16" t="n">
         <v>181.1050413469073</v>
@@ -32181,10 +32181,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S16" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U16" t="n">
         <v>0.08167695791351813</v>
@@ -32224,16 +32224,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
         <v>424.6341946041488</v>
@@ -32242,7 +32242,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N17" t="n">
         <v>595.6470695927186</v>
@@ -32251,7 +32251,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647496</v>
@@ -32260,7 +32260,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32303,7 +32303,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
@@ -32312,7 +32312,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
         <v>288.4168775622982</v>
@@ -32321,10 +32321,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O18" t="n">
         <v>424.9599466855526</v>
@@ -32339,10 +32339,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32403,7 +32403,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32415,16 +32415,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32698,43 +32698,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L23" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R23" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32777,46 +32777,46 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P24" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32862,7 +32862,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
@@ -32874,10 +32874,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N25" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32886,19 +32886,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,16 +32935,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32953,7 +32953,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32962,7 +32962,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32971,7 +32971,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33014,7 +33014,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33023,7 +33023,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K27" t="n">
         <v>288.4168775622982</v>
@@ -33032,10 +33032,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O27" t="n">
         <v>424.9599466855526</v>
@@ -33050,10 +33050,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T27" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33114,7 +33114,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33126,16 +33126,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33409,16 +33409,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33427,7 +33427,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33436,7 +33436,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33445,7 +33445,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33488,7 +33488,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33497,7 +33497,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
@@ -33506,10 +33506,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855526</v>
@@ -33524,10 +33524,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T33" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33588,7 +33588,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33600,16 +33600,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,16 +33646,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33664,7 +33664,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33673,7 +33673,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33682,7 +33682,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33725,7 +33725,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33734,7 +33734,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
@@ -33743,10 +33743,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
@@ -33761,10 +33761,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T36" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33825,7 +33825,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33837,16 +33837,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -34120,16 +34120,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34138,7 +34138,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34147,7 +34147,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34156,7 +34156,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34199,7 +34199,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34208,7 +34208,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34217,10 +34217,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
@@ -34235,10 +34235,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T42" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34299,7 +34299,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34311,16 +34311,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34784,19 +34784,19 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
-        <v>529.4413268262938</v>
+        <v>410.005506727916</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34933,19 +34933,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35012,25 +35012,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
-        <v>138.3897561047526</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730084</v>
       </c>
       <c r="M6" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35170,25 +35170,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770689</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35261,13 +35261,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O9" t="n">
-        <v>325.1459203262125</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35331,7 +35331,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35346,7 +35346,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35489,10 +35489,10 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K12" t="n">
-        <v>384.9870895382561</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M12" t="n">
         <v>310.4243770504662</v>
@@ -35504,10 +35504,10 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P12" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q12" t="n">
-        <v>298.0903205209232</v>
+        <v>215.6591577951388</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303329</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109071</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081117</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349805</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,25 +35723,25 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560242</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504661</v>
+        <v>670.927063341192</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980127</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O15" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
-        <v>495.5025975092005</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q15" t="n">
         <v>298.0903205209232</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.5077701655655</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K16" t="n">
         <v>151.7024285299105</v>
@@ -35811,7 +35811,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N16" t="n">
         <v>273.2768778056036</v>
@@ -35823,7 +35823,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187472</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35884,13 +35884,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
@@ -35905,7 +35905,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35969,19 +35969,19 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411081</v>
+        <v>570.772884818783</v>
       </c>
       <c r="P18" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q18" t="n">
-        <v>268.0367344586612</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,10 +36039,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
@@ -36054,13 +36054,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36200,7 +36200,7 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>384.9870895382561</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
         <v>249.2577049560243</v>
@@ -36215,7 +36215,7 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P21" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q21" t="n">
         <v>298.0903205209232</v>
@@ -36358,28 +36358,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M23" t="n">
         <v>805.3296502221118</v>
       </c>
       <c r="N23" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,25 +36434,25 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K24" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L24" t="n">
-        <v>609.76039124675</v>
+        <v>345.2951542341706</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>525.5561835714618</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
@@ -36513,28 +36513,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M25" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36595,13 +36595,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36616,7 +36616,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,28 +36671,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>487.1420318003114</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O27" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P27" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q27" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,10 +36750,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799285</v>
@@ -36765,13 +36765,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36838,7 +36838,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36926,13 +36926,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>484.7652115523311</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>80.63966029520618</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K31" t="n">
         <v>219.8343186595512</v>
@@ -37005,7 +37005,7 @@
         <v>304.3692416502436</v>
       </c>
       <c r="P31" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q31" t="n">
         <v>107.3575901015154</v>
@@ -37069,13 +37069,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37090,7 +37090,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,28 +37145,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>720.1247453734243</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N33" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q33" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37239,7 +37239,7 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O34" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P34" t="n">
         <v>246.5154907414414</v>
@@ -37306,13 +37306,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221127</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37327,7 +37327,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,31 +37382,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>720.1247453734243</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N36" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>207.0934149315247</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q36" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37476,7 +37476,7 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O37" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P37" t="n">
         <v>246.5154907414414</v>
@@ -37619,13 +37619,13 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
-        <v>334.5577682773024</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
         <v>310.4243770504663</v>
@@ -37637,7 +37637,7 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>525.5561835714618</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.63966029520613</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K40" t="n">
         <v>219.8343186595512</v>
@@ -37713,10 +37713,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O40" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P40" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q40" t="n">
         <v>107.3575901015154</v>
@@ -37780,13 +37780,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303329</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37801,7 +37801,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37865,22 +37865,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>484.7652115523311</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>10.73738595686865</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.63966029520618</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K43" t="n">
         <v>219.8343186595512</v>
@@ -37947,10 +37947,10 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N43" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O43" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P43" t="n">
         <v>246.5154907414414</v>
